--- a/Code/Results/Cases/Case_5_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_228/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.779056349202563</v>
+        <v>0.891281037216288</v>
       </c>
       <c r="C2">
-        <v>0.7003753910481123</v>
+        <v>0.227868235862644</v>
       </c>
       <c r="D2">
-        <v>0.02322513383758817</v>
+        <v>0.008829382088016757</v>
       </c>
       <c r="E2">
-        <v>1.449714236420846</v>
+        <v>0.424636301865192</v>
       </c>
       <c r="F2">
-        <v>0.6325033774987929</v>
+        <v>0.511900057648603</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5472624412933058</v>
+        <v>0.8201990362995204</v>
       </c>
       <c r="O2">
-        <v>1.788086710922329</v>
+        <v>1.626294133104693</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.413462305345547</v>
+        <v>0.7821342540257206</v>
       </c>
       <c r="C3">
-        <v>0.6153534286271451</v>
+        <v>0.2013612742698854</v>
       </c>
       <c r="D3">
-        <v>0.02071604848912756</v>
+        <v>0.00796129246657884</v>
       </c>
       <c r="E3">
-        <v>1.243078783301215</v>
+        <v>0.3703224242887444</v>
       </c>
       <c r="F3">
-        <v>0.5616888867043315</v>
+        <v>0.4991551764899711</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5624074438399447</v>
+        <v>0.8269554030532333</v>
       </c>
       <c r="O3">
-        <v>1.600022165726784</v>
+        <v>1.597674074346656</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.189862020439534</v>
+        <v>0.715054343910424</v>
       </c>
       <c r="C4">
-        <v>0.5632560601581247</v>
+        <v>0.1850036139169049</v>
       </c>
       <c r="D4">
-        <v>0.0191723239084034</v>
+        <v>0.007425584329315171</v>
       </c>
       <c r="E4">
-        <v>1.118808196436348</v>
+        <v>0.3370727147557346</v>
       </c>
       <c r="F4">
-        <v>0.519732078630561</v>
+        <v>0.4917844073917266</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5726876315243246</v>
+        <v>0.8315100509956181</v>
       </c>
       <c r="O4">
-        <v>1.489582747026674</v>
+        <v>1.581611426959796</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.098910184018507</v>
+        <v>0.6877035934890046</v>
       </c>
       <c r="C5">
-        <v>0.5420411456619547</v>
+        <v>0.1783172446287438</v>
       </c>
       <c r="D5">
-        <v>0.0185423087973362</v>
+        <v>0.007206620249466056</v>
       </c>
       <c r="E5">
-        <v>1.068720996630489</v>
+        <v>0.3235461137417133</v>
       </c>
       <c r="F5">
-        <v>0.5029817262863432</v>
+        <v>0.4888945045365602</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5771137187326616</v>
+        <v>0.8334682874417609</v>
       </c>
       <c r="O5">
-        <v>1.445727854996107</v>
+        <v>1.575443445801824</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.083816315623551</v>
+        <v>0.683161131083466</v>
       </c>
       <c r="C6">
-        <v>0.5385190222451399</v>
+        <v>0.1772057465150567</v>
       </c>
       <c r="D6">
-        <v>0.01843763496319895</v>
+        <v>0.007170222232623757</v>
       </c>
       <c r="E6">
-        <v>1.06043474355225</v>
+        <v>0.3213013576355337</v>
       </c>
       <c r="F6">
-        <v>0.5002203262727178</v>
+        <v>0.488421491470362</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5778626945771848</v>
+        <v>0.8337996237252412</v>
       </c>
       <c r="O6">
-        <v>1.438512020512206</v>
+        <v>1.574442007655904</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.188634802942602</v>
+        <v>0.7146855423868601</v>
       </c>
       <c r="C7">
-        <v>0.5629699015226493</v>
+        <v>0.1849135218971583</v>
       </c>
       <c r="D7">
-        <v>0.01916383126648213</v>
+        <v>0.007422633943278356</v>
       </c>
       <c r="E7">
-        <v>1.118130586196571</v>
+        <v>0.3368902001133449</v>
       </c>
       <c r="F7">
-        <v>0.5195048163970952</v>
+        <v>0.4917449733671404</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5727463769509598</v>
+        <v>0.8315360466860326</v>
       </c>
       <c r="O7">
-        <v>1.488986794824825</v>
+        <v>1.581526716955437</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.652784326280823</v>
+        <v>0.8536608088396633</v>
       </c>
       <c r="C8">
-        <v>0.6710304151314688</v>
+        <v>0.2187458238674935</v>
       </c>
       <c r="D8">
-        <v>0.02236055606540788</v>
+        <v>0.008530636135073877</v>
       </c>
       <c r="E8">
-        <v>1.377862099944636</v>
+        <v>0.4058870429058317</v>
       </c>
       <c r="F8">
-        <v>0.607748013862178</v>
+        <v>0.5074109087968353</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5522746616587497</v>
+        <v>0.822444341291046</v>
       </c>
       <c r="O8">
-        <v>1.722125294112175</v>
+        <v>1.616111236584089</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.572595069544775</v>
+        <v>1.125667569260031</v>
       </c>
       <c r="C9">
-        <v>0.8843684935908414</v>
+        <v>0.2844324375343206</v>
       </c>
       <c r="D9">
-        <v>0.02861266032527965</v>
+        <v>0.01068126729409613</v>
       </c>
       <c r="E9">
-        <v>1.912959845882909</v>
+        <v>0.5420748521896286</v>
       </c>
       <c r="F9">
-        <v>0.7946371207917053</v>
+        <v>0.5417675613070116</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5203940063715109</v>
+        <v>0.8078376126043167</v>
       </c>
       <c r="O9">
-        <v>2.224925080912243</v>
+        <v>1.696013581328145</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.258394100032092</v>
+        <v>1.325184521455583</v>
       </c>
       <c r="C10">
-        <v>1.042906896175964</v>
+        <v>0.3322882203825657</v>
       </c>
       <c r="D10">
-        <v>0.03321012300651205</v>
+        <v>0.01224697816459752</v>
       </c>
       <c r="E10">
-        <v>2.329892352896664</v>
+        <v>0.642816469174079</v>
       </c>
       <c r="F10">
-        <v>0.9430726850331439</v>
+        <v>0.5692687019538027</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5027329567846834</v>
+        <v>0.7990697030542435</v>
       </c>
       <c r="O10">
-        <v>2.630853457698009</v>
+        <v>1.762230245765721</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.573606404379404</v>
+        <v>1.415878935840453</v>
       </c>
       <c r="C11">
-        <v>1.115658666976429</v>
+        <v>0.3539710371430829</v>
       </c>
       <c r="D11">
-        <v>0.03530647013628396</v>
+        <v>0.01295597692462991</v>
       </c>
       <c r="E11">
-        <v>2.526862800701835</v>
+        <v>0.6888270794604097</v>
       </c>
       <c r="F11">
-        <v>1.013689971824519</v>
+        <v>0.5822797367671626</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4961278197817549</v>
+        <v>0.7955073947389835</v>
       </c>
       <c r="O11">
-        <v>2.82564162347964</v>
+        <v>1.79401746244065</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.693532915778007</v>
+        <v>1.450212479127003</v>
       </c>
       <c r="C12">
-        <v>1.143321250177166</v>
+        <v>0.3621691174283228</v>
       </c>
       <c r="D12">
-        <v>0.03610140536877537</v>
+        <v>0.01322397201867176</v>
       </c>
       <c r="E12">
-        <v>2.602710085513152</v>
+        <v>0.7062788127806243</v>
       </c>
       <c r="F12">
-        <v>1.040938998919231</v>
+        <v>0.5872793665215852</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4938486799576225</v>
+        <v>0.7942197524327455</v>
       </c>
       <c r="O12">
-        <v>2.901066009328986</v>
+        <v>1.806296323695108</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.667677917251865</v>
+        <v>1.442818615038959</v>
       </c>
       <c r="C13">
-        <v>1.137358204513845</v>
+        <v>0.3604040838560536</v>
       </c>
       <c r="D13">
-        <v>0.03593014633134572</v>
+        <v>0.01316627646838953</v>
       </c>
       <c r="E13">
-        <v>2.586315373131498</v>
+        <v>0.7025189657318691</v>
       </c>
       <c r="F13">
-        <v>1.035046769109726</v>
+        <v>0.5861993661312965</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4943293748876414</v>
+        <v>0.7944943411547314</v>
       </c>
       <c r="O13">
-        <v>2.884744552676722</v>
+        <v>1.803641063067687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.583460963426489</v>
+        <v>1.418703791635664</v>
       </c>
       <c r="C14">
-        <v>1.117932080803399</v>
+        <v>0.3546457545478177</v>
       </c>
       <c r="D14">
-        <v>0.03537184556556383</v>
+        <v>0.01297803492241911</v>
       </c>
       <c r="E14">
-        <v>2.533076268249047</v>
+        <v>0.6902622597063157</v>
       </c>
       <c r="F14">
-        <v>1.015921202413992</v>
+        <v>0.5826895999395845</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4959357619522038</v>
+        <v>0.7954002303527545</v>
       </c>
       <c r="O14">
-        <v>2.831812253847602</v>
+        <v>1.795022793749439</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.531951960394792</v>
+        <v>1.403931378352922</v>
       </c>
       <c r="C15">
-        <v>1.106048451917161</v>
+        <v>0.3511169470808397</v>
       </c>
       <c r="D15">
-        <v>0.03503002526561261</v>
+        <v>0.0128626674887542</v>
       </c>
       <c r="E15">
-        <v>2.500636432746887</v>
+        <v>0.6827584534899103</v>
       </c>
       <c r="F15">
-        <v>1.004274361324519</v>
+        <v>0.5805492449541987</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4969491618378683</v>
+        <v>0.7959631012151078</v>
       </c>
       <c r="O15">
-        <v>2.799612688980119</v>
+        <v>1.789775404628529</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.237867421450176</v>
+        <v>1.319256010063896</v>
       </c>
       <c r="C16">
-        <v>1.038166945593076</v>
+        <v>0.3308694275111179</v>
       </c>
       <c r="D16">
-        <v>0.03307325246844783</v>
+        <v>0.01220057630517601</v>
       </c>
       <c r="E16">
-        <v>2.317183995385847</v>
+        <v>0.639813435357766</v>
       </c>
       <c r="F16">
-        <v>0.9385251487574209</v>
+        <v>0.5684285290814017</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5031947557957253</v>
+        <v>0.7993110881807439</v>
       </c>
       <c r="O16">
-        <v>2.618344480367</v>
+        <v>1.760186576791938</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.058350979683894</v>
+        <v>1.267292684093718</v>
       </c>
       <c r="C17">
-        <v>0.9967006018759719</v>
+        <v>0.3184257859094828</v>
       </c>
       <c r="D17">
-        <v>0.03187435315511067</v>
+        <v>0.01179355792734071</v>
       </c>
       <c r="E17">
-        <v>2.206651869770965</v>
+        <v>0.6135164451768702</v>
       </c>
       <c r="F17">
-        <v>0.8990250417093932</v>
+        <v>0.5611215421691469</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5074035418196061</v>
+        <v>0.8014741645121291</v>
       </c>
       <c r="O17">
-        <v>2.509875865595433</v>
+        <v>1.74246286157171</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.955396315568919</v>
+        <v>1.23739851142949</v>
       </c>
       <c r="C18">
-        <v>0.9729082451048328</v>
+        <v>0.3112603546215382</v>
       </c>
       <c r="D18">
-        <v>0.03118521612934444</v>
+        <v>0.01155914689276472</v>
       </c>
       <c r="E18">
-        <v>2.143750234883953</v>
+        <v>0.5984081774049912</v>
       </c>
       <c r="F18">
-        <v>0.8765926120524909</v>
+        <v>0.5569658393738024</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5099577426567592</v>
+        <v>0.8027584278971176</v>
       </c>
       <c r="O18">
-        <v>2.448427394981081</v>
+        <v>1.732425220543718</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.92058612701021</v>
+        <v>1.227275812269681</v>
       </c>
       <c r="C19">
-        <v>0.9648618899873611</v>
+        <v>0.3088328648848915</v>
       </c>
       <c r="D19">
-        <v>0.03095195079791324</v>
+        <v>0.01147972760001181</v>
       </c>
       <c r="E19">
-        <v>2.122562641046912</v>
+        <v>0.5932956408562973</v>
       </c>
       <c r="F19">
-        <v>0.8690448599234628</v>
+        <v>0.5555668567712644</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5108449853594692</v>
+        <v>0.8032001470647003</v>
       </c>
       <c r="O19">
-        <v>2.427777516155288</v>
+        <v>1.729053468574108</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.077429258522557</v>
+        <v>1.272824921058884</v>
       </c>
       <c r="C20">
-        <v>1.001108611589189</v>
+        <v>0.3197512807541898</v>
       </c>
       <c r="D20">
-        <v>0.03200193011730335</v>
+        <v>0.01183691742154025</v>
       </c>
       <c r="E20">
-        <v>2.218347084429894</v>
+        <v>0.6163140223165016</v>
       </c>
       <c r="F20">
-        <v>0.9031997593364878</v>
+        <v>0.5618945058666469</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5069415857960422</v>
+        <v>0.8012397489807483</v>
       </c>
       <c r="O20">
-        <v>2.521323851832079</v>
+        <v>1.744333360078087</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.608181431655566</v>
+        <v>1.425787190507151</v>
       </c>
       <c r="C21">
-        <v>1.123634744268685</v>
+        <v>0.3563374627162545</v>
       </c>
       <c r="D21">
-        <v>0.03553579893990388</v>
+        <v>0.01303333941032747</v>
       </c>
       <c r="E21">
-        <v>2.548677903003792</v>
+        <v>0.6938615595734632</v>
       </c>
       <c r="F21">
-        <v>1.02152452598979</v>
+        <v>0.5837185269568863</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4954577596655341</v>
+        <v>0.7951324840674232</v>
       </c>
       <c r="O21">
-        <v>2.847312879463345</v>
+        <v>1.797547609276052</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.958390537590049</v>
+        <v>1.525695502703115</v>
       </c>
       <c r="C22">
-        <v>1.20438417454028</v>
+        <v>0.3801743374466469</v>
       </c>
       <c r="D22">
-        <v>0.03785199357498925</v>
+        <v>0.01381242070084454</v>
       </c>
       <c r="E22">
-        <v>2.772026174413682</v>
+        <v>0.7447106142914066</v>
       </c>
       <c r="F22">
-        <v>1.101851004839943</v>
+        <v>0.598405449573761</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4892557680154752</v>
+        <v>0.7914985108803947</v>
       </c>
       <c r="O22">
-        <v>3.070168288189024</v>
+        <v>1.833736282588887</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.771137446149226</v>
+        <v>1.472378449820724</v>
       </c>
       <c r="C23">
-        <v>1.161217123494396</v>
+        <v>0.3674590195964242</v>
       </c>
       <c r="D23">
-        <v>0.0366150469772677</v>
+        <v>0.01339687757999286</v>
       </c>
       <c r="E23">
-        <v>2.652061281605427</v>
+        <v>0.7175554673538045</v>
       </c>
       <c r="F23">
-        <v>1.058682527413936</v>
+        <v>0.5905277838387093</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4924407204400154</v>
+        <v>0.7934053094209403</v>
       </c>
       <c r="O23">
-        <v>2.950254818965249</v>
+        <v>1.814291914354243</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.068803191739789</v>
+        <v>1.270323858226448</v>
       </c>
       <c r="C24">
-        <v>0.9991156050313066</v>
+        <v>0.3191520600789204</v>
       </c>
       <c r="D24">
-        <v>0.03194425220755193</v>
+        <v>0.01181731587243462</v>
       </c>
       <c r="E24">
-        <v>2.21305768492968</v>
+        <v>0.6150492060403536</v>
       </c>
       <c r="F24">
-        <v>0.9013115122846926</v>
+        <v>0.5615449082929018</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5071500183705879</v>
+        <v>0.8013456015225415</v>
       </c>
       <c r="O24">
-        <v>2.516145393134281</v>
+        <v>1.743487234541078</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.322328966215309</v>
+        <v>1.052139364296011</v>
       </c>
       <c r="C25">
-        <v>0.8264121628264149</v>
+        <v>0.2667332554221389</v>
       </c>
       <c r="D25">
-        <v>0.02692176056034867</v>
+        <v>0.01010192572474011</v>
       </c>
       <c r="E25">
-        <v>1.764670049938147</v>
+        <v>0.5051227919026502</v>
       </c>
       <c r="F25">
-        <v>0.7423345035252851</v>
+        <v>0.5320795236704896</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5280629216007071</v>
+        <v>0.8114442649019864</v>
       </c>
       <c r="O25">
-        <v>2.083172790449595</v>
+        <v>1.673089269594783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_228/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_228/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.891281037216288</v>
+        <v>2.779056349202733</v>
       </c>
       <c r="C2">
-        <v>0.227868235862644</v>
+        <v>0.7003753910483397</v>
       </c>
       <c r="D2">
-        <v>0.008829382088016757</v>
+        <v>0.02322513383764147</v>
       </c>
       <c r="E2">
-        <v>0.424636301865192</v>
+        <v>1.449714236420832</v>
       </c>
       <c r="F2">
-        <v>0.511900057648603</v>
+        <v>0.6325033774987787</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8201990362995204</v>
+        <v>0.5472624412932987</v>
       </c>
       <c r="O2">
-        <v>1.626294133104693</v>
+        <v>1.788086710922357</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7821342540257206</v>
+        <v>2.41346230534532</v>
       </c>
       <c r="C3">
-        <v>0.2013612742698854</v>
+        <v>0.6153534286266904</v>
       </c>
       <c r="D3">
-        <v>0.00796129246657884</v>
+        <v>0.02071604848919151</v>
       </c>
       <c r="E3">
-        <v>0.3703224242887444</v>
+        <v>1.243078783301229</v>
       </c>
       <c r="F3">
-        <v>0.4991551764899711</v>
+        <v>0.5616888867043031</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8269554030532333</v>
+        <v>0.5624074438398878</v>
       </c>
       <c r="O3">
-        <v>1.597674074346656</v>
+        <v>1.600022165726756</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.715054343910424</v>
+        <v>2.189862020439421</v>
       </c>
       <c r="C4">
-        <v>0.1850036139169049</v>
+        <v>0.5632560601581247</v>
       </c>
       <c r="D4">
-        <v>0.007425584329315171</v>
+        <v>0.01917232390857038</v>
       </c>
       <c r="E4">
-        <v>0.3370727147557346</v>
+        <v>1.118808196436333</v>
       </c>
       <c r="F4">
-        <v>0.4917844073917266</v>
+        <v>0.5197320786305539</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8315100509956181</v>
+        <v>0.5726876315243317</v>
       </c>
       <c r="O4">
-        <v>1.581611426959796</v>
+        <v>1.489582747026617</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6877035934890046</v>
+        <v>2.098910184018564</v>
       </c>
       <c r="C5">
-        <v>0.1783172446287438</v>
+        <v>0.5420411456618695</v>
       </c>
       <c r="D5">
-        <v>0.007206620249466056</v>
+        <v>0.01854230879734331</v>
       </c>
       <c r="E5">
-        <v>0.3235461137417133</v>
+        <v>1.068720996630461</v>
       </c>
       <c r="F5">
-        <v>0.4888945045365602</v>
+        <v>0.5029817262863361</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8334682874417609</v>
+        <v>0.5771137187326687</v>
       </c>
       <c r="O5">
-        <v>1.575443445801824</v>
+        <v>1.445727854996107</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.683161131083466</v>
+        <v>2.083816315623523</v>
       </c>
       <c r="C6">
-        <v>0.1772057465150567</v>
+        <v>0.5385190222450831</v>
       </c>
       <c r="D6">
-        <v>0.007170222232623757</v>
+        <v>0.01843763496338013</v>
       </c>
       <c r="E6">
-        <v>0.3213013576355337</v>
+        <v>1.060434743552293</v>
       </c>
       <c r="F6">
-        <v>0.488421491470362</v>
+        <v>0.5002203262727107</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8337996237252412</v>
+        <v>0.5778626945771776</v>
       </c>
       <c r="O6">
-        <v>1.574442007655904</v>
+        <v>1.438512020512206</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7146855423868601</v>
+        <v>2.188634802942659</v>
       </c>
       <c r="C7">
-        <v>0.1849135218971583</v>
+        <v>0.5629699015225071</v>
       </c>
       <c r="D7">
-        <v>0.007422633943278356</v>
+        <v>0.01916383126636845</v>
       </c>
       <c r="E7">
-        <v>0.3368902001133449</v>
+        <v>1.118130586196571</v>
       </c>
       <c r="F7">
-        <v>0.4917449733671404</v>
+        <v>0.519504816397081</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8315360466860326</v>
+        <v>0.5727463769509669</v>
       </c>
       <c r="O7">
-        <v>1.581526716955437</v>
+        <v>1.488986794824797</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8536608088396633</v>
+        <v>2.652784326280937</v>
       </c>
       <c r="C8">
-        <v>0.2187458238674935</v>
+        <v>0.6710304151319519</v>
       </c>
       <c r="D8">
-        <v>0.008530636135073877</v>
+        <v>0.02236055606546827</v>
       </c>
       <c r="E8">
-        <v>0.4058870429058317</v>
+        <v>1.377862099944622</v>
       </c>
       <c r="F8">
-        <v>0.5074109087968353</v>
+        <v>0.607748013862178</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.822444341291046</v>
+        <v>0.5522746616587568</v>
       </c>
       <c r="O8">
-        <v>1.616111236584089</v>
+        <v>1.72212529411226</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.125667569260031</v>
+        <v>3.572595069544718</v>
       </c>
       <c r="C9">
-        <v>0.2844324375343206</v>
+        <v>0.8843684935908414</v>
       </c>
       <c r="D9">
-        <v>0.01068126729409613</v>
+        <v>0.02861266032518017</v>
       </c>
       <c r="E9">
-        <v>0.5420748521896286</v>
+        <v>1.912959845882895</v>
       </c>
       <c r="F9">
-        <v>0.5417675613070116</v>
+        <v>0.7946371207917196</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8078376126043167</v>
+        <v>0.5203940063714398</v>
       </c>
       <c r="O9">
-        <v>1.696013581328145</v>
+        <v>2.224925080912243</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.325184521455583</v>
+        <v>4.258394100031921</v>
       </c>
       <c r="C10">
-        <v>0.3322882203825657</v>
+        <v>1.042906896175651</v>
       </c>
       <c r="D10">
-        <v>0.01224697816459752</v>
+        <v>0.03321012300651915</v>
       </c>
       <c r="E10">
-        <v>0.642816469174079</v>
+        <v>2.329892352896664</v>
       </c>
       <c r="F10">
-        <v>0.5692687019538027</v>
+        <v>0.9430726850331297</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7990697030542435</v>
+        <v>0.5027329567846905</v>
       </c>
       <c r="O10">
-        <v>1.762230245765721</v>
+        <v>2.630853457698009</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.415878935840453</v>
+        <v>4.573606404379575</v>
       </c>
       <c r="C11">
-        <v>0.3539710371430829</v>
+        <v>1.115658666976373</v>
       </c>
       <c r="D11">
-        <v>0.01295597692462991</v>
+        <v>0.03530647013617028</v>
       </c>
       <c r="E11">
-        <v>0.6888270794604097</v>
+        <v>2.526862800701878</v>
       </c>
       <c r="F11">
-        <v>0.5822797367671626</v>
+        <v>1.013689971824533</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7955073947389835</v>
+        <v>0.4961278197817478</v>
       </c>
       <c r="O11">
-        <v>1.79401746244065</v>
+        <v>2.825641623479669</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.450212479127003</v>
+        <v>4.693532915777951</v>
       </c>
       <c r="C12">
-        <v>0.3621691174283228</v>
+        <v>1.143321250177451</v>
       </c>
       <c r="D12">
-        <v>0.01322397201867176</v>
+        <v>0.0361014053686759</v>
       </c>
       <c r="E12">
-        <v>0.7062788127806243</v>
+        <v>2.602710085513181</v>
       </c>
       <c r="F12">
-        <v>0.5872793665215852</v>
+        <v>1.040938998919231</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7942197524327455</v>
+        <v>0.4938486799576722</v>
       </c>
       <c r="O12">
-        <v>1.806296323695108</v>
+        <v>2.901066009329043</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.442818615038959</v>
+        <v>4.667677917251979</v>
       </c>
       <c r="C13">
-        <v>0.3604040838560536</v>
+        <v>1.13735820451376</v>
       </c>
       <c r="D13">
-        <v>0.01316627646838953</v>
+        <v>0.03593014633133862</v>
       </c>
       <c r="E13">
-        <v>0.7025189657318691</v>
+        <v>2.586315373131541</v>
       </c>
       <c r="F13">
-        <v>0.5861993661312965</v>
+        <v>1.035046769109726</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7944943411547314</v>
+        <v>0.4943293748875774</v>
       </c>
       <c r="O13">
-        <v>1.803641063067687</v>
+        <v>2.884744552676835</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.418703791635664</v>
+        <v>4.583460963426489</v>
       </c>
       <c r="C14">
-        <v>0.3546457545478177</v>
+        <v>1.117932080803513</v>
       </c>
       <c r="D14">
-        <v>0.01297803492241911</v>
+        <v>0.03537184556557094</v>
       </c>
       <c r="E14">
-        <v>0.6902622597063157</v>
+        <v>2.53307626824909</v>
       </c>
       <c r="F14">
-        <v>0.5826895999395845</v>
+        <v>1.01592120241402</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7954002303527545</v>
+        <v>0.4959357619521967</v>
       </c>
       <c r="O14">
-        <v>1.795022793749439</v>
+        <v>2.831812253847517</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.403931378352922</v>
+        <v>4.531951960394792</v>
       </c>
       <c r="C15">
-        <v>0.3511169470808397</v>
+        <v>1.106048451917047</v>
       </c>
       <c r="D15">
-        <v>0.0128626674887542</v>
+        <v>0.03503002526567656</v>
       </c>
       <c r="E15">
-        <v>0.6827584534899103</v>
+        <v>2.500636432746859</v>
       </c>
       <c r="F15">
-        <v>0.5805492449541987</v>
+        <v>1.004274361324519</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7959631012151078</v>
+        <v>0.4969491618378683</v>
       </c>
       <c r="O15">
-        <v>1.789775404628529</v>
+        <v>2.799612688980091</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.319256010063896</v>
+        <v>4.237867421450119</v>
       </c>
       <c r="C16">
-        <v>0.3308694275111179</v>
+        <v>1.03816694559282</v>
       </c>
       <c r="D16">
-        <v>0.01220057630517601</v>
+        <v>0.0330732524684052</v>
       </c>
       <c r="E16">
-        <v>0.639813435357766</v>
+        <v>2.317183995385804</v>
       </c>
       <c r="F16">
-        <v>0.5684285290814017</v>
+        <v>0.9385251487574209</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7993110881807439</v>
+        <v>0.5031947557956684</v>
       </c>
       <c r="O16">
-        <v>1.760186576791938</v>
+        <v>2.618344480367</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.267292684093718</v>
+        <v>4.058350979683951</v>
       </c>
       <c r="C17">
-        <v>0.3184257859094828</v>
+        <v>0.9967006018759434</v>
       </c>
       <c r="D17">
-        <v>0.01179355792734071</v>
+        <v>0.0318743531548904</v>
       </c>
       <c r="E17">
-        <v>0.6135164451768702</v>
+        <v>2.20665186977098</v>
       </c>
       <c r="F17">
-        <v>0.5611215421691469</v>
+        <v>0.8990250417093932</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8014741645121291</v>
+        <v>0.507403541819663</v>
       </c>
       <c r="O17">
-        <v>1.74246286157171</v>
+        <v>2.509875865595433</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.23739851142949</v>
+        <v>3.955396315569146</v>
       </c>
       <c r="C18">
-        <v>0.3112603546215382</v>
+        <v>0.9729082451048328</v>
       </c>
       <c r="D18">
-        <v>0.01155914689276472</v>
+        <v>0.0311852161294226</v>
       </c>
       <c r="E18">
-        <v>0.5984081774049912</v>
+        <v>2.143750234883939</v>
       </c>
       <c r="F18">
-        <v>0.5569658393738024</v>
+        <v>0.8765926120524767</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8027584278971176</v>
+        <v>0.5099577426567734</v>
       </c>
       <c r="O18">
-        <v>1.732425220543718</v>
+        <v>2.448427394981081</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.227275812269681</v>
+        <v>3.920586127010154</v>
       </c>
       <c r="C19">
-        <v>0.3088328648848915</v>
+        <v>0.9648618899873327</v>
       </c>
       <c r="D19">
-        <v>0.01147972760001181</v>
+        <v>0.03095195079792035</v>
       </c>
       <c r="E19">
-        <v>0.5932956408562973</v>
+        <v>2.122562641046898</v>
       </c>
       <c r="F19">
-        <v>0.5555668567712644</v>
+        <v>0.8690448599234486</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8032001470647003</v>
+        <v>0.5108449853594763</v>
       </c>
       <c r="O19">
-        <v>1.729053468574108</v>
+        <v>2.427777516155288</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.272824921058884</v>
+        <v>4.077429258522557</v>
       </c>
       <c r="C20">
-        <v>0.3197512807541898</v>
+        <v>1.00110861158916</v>
       </c>
       <c r="D20">
-        <v>0.01183691742154025</v>
+        <v>0.03200193011743835</v>
       </c>
       <c r="E20">
-        <v>0.6163140223165016</v>
+        <v>2.218347084429922</v>
       </c>
       <c r="F20">
-        <v>0.5618945058666469</v>
+        <v>0.9031997593364736</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8012397489807483</v>
+        <v>0.5069415857960422</v>
       </c>
       <c r="O20">
-        <v>1.744333360078087</v>
+        <v>2.521323851832108</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.425787190507151</v>
+        <v>4.608181431655623</v>
       </c>
       <c r="C21">
-        <v>0.3563374627162545</v>
+        <v>1.123634744268657</v>
       </c>
       <c r="D21">
-        <v>0.01303333941032747</v>
+        <v>0.03553579893996783</v>
       </c>
       <c r="E21">
-        <v>0.6938615595734632</v>
+        <v>2.548677903003764</v>
       </c>
       <c r="F21">
-        <v>0.5837185269568863</v>
+        <v>1.02152452598979</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7951324840674232</v>
+        <v>0.4954577596655199</v>
       </c>
       <c r="O21">
-        <v>1.797547609276052</v>
+        <v>2.847312879463317</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.525695502703115</v>
+        <v>4.958390537590049</v>
       </c>
       <c r="C22">
-        <v>0.3801743374466469</v>
+        <v>1.204384174540508</v>
       </c>
       <c r="D22">
-        <v>0.01381242070084454</v>
+        <v>0.03785199357511004</v>
       </c>
       <c r="E22">
-        <v>0.7447106142914066</v>
+        <v>2.772026174413668</v>
       </c>
       <c r="F22">
-        <v>0.598405449573761</v>
+        <v>1.101851004839958</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7914985108803947</v>
+        <v>0.4892557680154752</v>
       </c>
       <c r="O22">
-        <v>1.833736282588887</v>
+        <v>3.070168288188881</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.472378449820724</v>
+        <v>4.771137446149112</v>
       </c>
       <c r="C23">
-        <v>0.3674590195964242</v>
+        <v>1.161217123494396</v>
       </c>
       <c r="D23">
-        <v>0.01339687757999286</v>
+        <v>0.03661504697738138</v>
       </c>
       <c r="E23">
-        <v>0.7175554673538045</v>
+        <v>2.652061281605427</v>
       </c>
       <c r="F23">
-        <v>0.5905277838387093</v>
+        <v>1.058682527413936</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7934053094209403</v>
+        <v>0.4924407204400225</v>
       </c>
       <c r="O23">
-        <v>1.814291914354243</v>
+        <v>2.950254818965163</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.270323858226448</v>
+        <v>4.068803191739732</v>
       </c>
       <c r="C24">
-        <v>0.3191520600789204</v>
+        <v>0.9991156050312213</v>
       </c>
       <c r="D24">
-        <v>0.01181731587243462</v>
+        <v>0.03194425220772956</v>
       </c>
       <c r="E24">
-        <v>0.6150492060403536</v>
+        <v>2.213057684929694</v>
       </c>
       <c r="F24">
-        <v>0.5615449082929018</v>
+        <v>0.9013115122846784</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8013456015225415</v>
+        <v>0.5071500183705879</v>
       </c>
       <c r="O24">
-        <v>1.743487234541078</v>
+        <v>2.516145393134309</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.052139364296011</v>
+        <v>3.322328966215423</v>
       </c>
       <c r="C25">
-        <v>0.2667332554221389</v>
+        <v>0.8264121628268981</v>
       </c>
       <c r="D25">
-        <v>0.01010192572474011</v>
+        <v>0.02692176056024209</v>
       </c>
       <c r="E25">
-        <v>0.5051227919026502</v>
+        <v>1.764670049938147</v>
       </c>
       <c r="F25">
-        <v>0.5320795236704896</v>
+        <v>0.7423345035252709</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8114442649019864</v>
+        <v>0.5280629216007071</v>
       </c>
       <c r="O25">
-        <v>1.673089269594783</v>
+        <v>2.083172790449566</v>
       </c>
     </row>
   </sheetData>
